--- a/biology/Zoologie/Paul-Édouard_Dreux/Paul-Édouard_Dreux.xlsx
+++ b/biology/Zoologie/Paul-Édouard_Dreux/Paul-Édouard_Dreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul-%C3%89douard_Dreux</t>
+          <t>Paul-Édouard_Dreux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul-Édouard Dreux, né à Paris le 5 octobre 1855 où il est mort le 8 juin 1947, est un sculpteur et graveur en médailles français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul-%C3%89douard_Dreux</t>
+          <t>Paul-Édouard_Dreux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul-Édouard Dreux naît le 5 octobre 1855 dans l'ancien 4e arrondissement de Paris du mariage de Charles Édouard Dreux, bijoutier, et de Victorine Sautereau[1]. 
-Statuaire animalier, en particulier de chiens, sociétaire du Salon des artistes français, il y obtient une mention honorable en 1924 et expose aussi au Salon d'hiver. Ses œuvres sont conservées à la Manufacture nationale de Sèvres où il travaillait, et au Musée des arts décoratifs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul-Édouard Dreux naît le 5 octobre 1855 dans l'ancien 4e arrondissement de Paris du mariage de Charles Édouard Dreux, bijoutier, et de Victorine Sautereau. 
+Statuaire animalier, en particulier de chiens, sociétaire du Salon des artistes français, il y obtient une mention honorable en 1924 et expose aussi au Salon d'hiver. Ses œuvres sont conservées à la Manufacture nationale de Sèvres où il travaillait, et au Musée des arts décoratifs.
 </t>
         </is>
       </c>
